--- a/import.xlsx
+++ b/import.xlsx
@@ -25,7 +25,7 @@
     <t>Harysson</t>
   </si>
   <si>
-    <t>0676024942</t>
+    <t>+33676024942</t>
   </si>
   <si>
     <t>ht</t>
@@ -195,7 +195,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -20,78 +20,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Harysson</t>
-  </si>
-  <si>
-    <t>+33676024942</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>sport,culture,logement</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>+33783421479</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+  <si>
+    <t>Anne-Sophie</t>
+  </si>
+  <si>
+    <t>+33660740947</t>
   </si>
   <si>
     <t>es</t>
   </si>
   <si>
-    <t>croix-rouge,français,education</t>
-  </si>
-  <si>
-    <t>Thibault</t>
-  </si>
-  <si>
-    <t>+33664632712</t>
+    <t>food,shelter,sport</t>
+  </si>
+  <si>
+    <t>Jean-François</t>
+  </si>
+  <si>
+    <t>+33611710320</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>education,health,red-cross</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>+33652478468</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>clothing,activities,food</t>
+  </si>
+  <si>
+    <t>Ludovic</t>
+  </si>
+  <si>
+    <t>+33631108245</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>berlin,shelter,law</t>
+  </si>
+  <si>
+    <t>Kavita</t>
+  </si>
+  <si>
+    <t>+33652543184</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>paris,sport,food</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t>+33663731278</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>music,singa,health</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>+33661855633</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>travail,singa,rencontres</t>
-  </si>
-  <si>
-    <t>Kenzo</t>
-  </si>
-  <si>
-    <t>+33666022595</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>sport,art,nourriture</t>
-  </si>
-  <si>
-    <t>Louisa</t>
-  </si>
-  <si>
-    <t>+33650881304</t>
+    <t>health,london,art</t>
+  </si>
+  <si>
+    <t>+33785987071</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>food,art,activities</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>+32491646138</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>meetings,sport,art</t>
+  </si>
+  <si>
+    <t>Manon</t>
+  </si>
+  <si>
+    <t>+33632318932</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>music,culture,paris</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>+33607670792</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>sport,education,health</t>
+  </si>
+  <si>
+    <t>Narjes</t>
+  </si>
+  <si>
+    <t>+33638853184</t>
   </si>
   <si>
     <t>ar</t>
   </si>
   <si>
-    <t>activités, loisir, logement</t>
-  </si>
-  <si>
-    <t>Agnès</t>
-  </si>
-  <si>
-    <t>+33609368809</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>singa,sport,rencontres</t>
+    <t>paris,meetings,law</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>+33659322198</t>
+  </si>
+  <si>
+    <t>paris,health,sport</t>
+  </si>
+  <si>
+    <t>Amare</t>
+  </si>
+  <si>
+    <t>+33758169493</t>
+  </si>
+  <si>
+    <t>education,law,french</t>
   </si>
 </sst>
 </file>
@@ -171,7 +258,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,29 +279,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="159.505102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="149.229591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -222,13 +309,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -236,13 +323,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -250,13 +337,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -264,13 +351,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -278,17 +365,129 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
